--- a/biology/Botanique/Gaultheria/Gaultheria.xlsx
+++ b/biology/Botanique/Gaultheria/Gaultheria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gaultheria est un genre de plante à fleurs de la famille des Ericaceae, Il contient de nombreuses espèces d'arbustes originaires d'Asie, d'Amérique et d'Australie. Certains auteurs y incluent d'autres genres comme Pernettya, le nombre d'espèces est donc fluctuant.
-Plusieurs espèces sont utilisées comme arbustes ornementaux, particulièrement Gaultheria mucronata du sud du Chili et Gaultheria shallon (salal) du Pacifique nord-ouest et nord américain. La Gaultheria est cousine de la bruyère et des myrtilles[2].
+Plusieurs espèces sont utilisées comme arbustes ornementaux, particulièrement Gaultheria mucronata du sud du Chili et Gaultheria shallon (salal) du Pacifique nord-ouest et nord américain. La Gaultheria est cousine de la bruyère et des myrtilles.
 </t>
         </is>
       </c>
@@ -512,11 +524,13 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 « Le genre a été dédié par Linné à Jean-François Gaulthier (1708–1756), botaniste et médecin du roi à Québec, qui communiqua la plante à Linné par l'intermédiaire de Kalm. Contrairement à l'opinion courante au Canada, Gaulthier n'est nullement le découvreur du Gaultheria. La plante en effet avait été envoyée à Tournefort par Sarrazin assez tôt pour qu'elle figurât dans les Institutiones rei rerbariae (1700) sous le nom de Vitis Idaea Canadensis, Pyrolaea folio Sarrac »
-— Frère Marie-Victorin, Flore laurentienne, 1935, p. 444[3].</t>
+— Frère Marie-Victorin, Flore laurentienne, 1935, p. 444.</t>
         </is>
       </c>
     </row>
@@ -544,7 +558,9 @@
           <t>Espèces (non exhaustif)</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Gaultheria adenothrix
